--- a/Section02/FdrDEM/FdrDEM.xlsx
+++ b/Section02/FdrDEM/FdrDEM.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - ESCUELA COLOMBIANA DE INGENIERIA JULIO GARAVITO\ECIJG.ClassSourcecode\HIDG\HIDG0021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section02\FdrDEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA4524E-97AE-4D64-BFE4-7316BE51FB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA8D4E-3624-4550-8697-F95B0CAD1C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66144ACD-EBDC-47EB-81B8-F135171BD540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{66144ACD-EBDC-47EB-81B8-F135171BD540}"/>
   </bookViews>
   <sheets>
     <sheet name="FDR" sheetId="1" r:id="rId1"/>
-    <sheet name="{R}" sheetId="3" r:id="rId2"/>
+    <sheet name="{R}" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,9 +90,6 @@
     <t>Orientación Geográfica</t>
   </si>
   <si>
-    <t>r.cfdtools@gmail.com</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">N
 </t>
@@ -153,16 +150,7 @@
     </r>
   </si>
   <si>
-    <t>Contenido creado por:</t>
-  </si>
-  <si>
-    <t>https://github.com/rcfdtools</t>
-  </si>
-  <si>
     <t>Licencia, cláusulas y condiciones de uso en:</t>
-  </si>
-  <si>
-    <t>https://github.com/rcfdtools/R.HydroTools/wiki/License</t>
   </si>
   <si>
     <t>Password: 1234</t>
@@ -175,6 +163,18 @@
   </si>
   <si>
     <t>FDR en MapWindow 4.5</t>
+  </si>
+  <si>
+    <t>Direcciones de Flujo – Flow Direction – FDR</t>
+  </si>
+  <si>
+    <t>Descarga y actualización en:</t>
+  </si>
+  <si>
+    <t>https://github.com/rcfdtools/R.LTWB/tree/main/Section02/FdrDEM</t>
+  </si>
+  <si>
+    <t>https://github.com/rcfdtools/R.LTWB/wiki/License</t>
   </si>
 </sst>
 </file>
@@ -246,14 +246,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -746,24 +746,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,8 +811,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2564782" y="3265784"/>
-          <a:ext cx="1479330" cy="612533"/>
+          <a:off x="2415503" y="3228177"/>
+          <a:ext cx="1361089" cy="617295"/>
           <a:chOff x="2411186" y="3118757"/>
           <a:chExt cx="1360714" cy="625929"/>
         </a:xfrm>
@@ -1224,8 +1224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4273393" y="3276670"/>
-          <a:ext cx="1479331" cy="612533"/>
+          <a:off x="4010635" y="3239063"/>
+          <a:ext cx="1361089" cy="617295"/>
           <a:chOff x="2411186" y="3118757"/>
           <a:chExt cx="1360714" cy="625929"/>
         </a:xfrm>
@@ -1637,8 +1637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5980644" y="3255580"/>
-          <a:ext cx="1479331" cy="622057"/>
+          <a:off x="5594882" y="3222735"/>
+          <a:ext cx="1361090" cy="617295"/>
           <a:chOff x="2411186" y="3118757"/>
           <a:chExt cx="1360714" cy="625929"/>
         </a:xfrm>
@@ -2050,8 +2050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7688576" y="3265785"/>
-          <a:ext cx="1479331" cy="612533"/>
+          <a:off x="7184573" y="3228178"/>
+          <a:ext cx="1361090" cy="617295"/>
           <a:chOff x="2411186" y="3118757"/>
           <a:chExt cx="1360714" cy="625929"/>
         </a:xfrm>
@@ -2463,8 +2463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="911186" y="1360150"/>
-          <a:ext cx="563802" cy="535652"/>
+          <a:off x="867010" y="1353581"/>
+          <a:ext cx="516012" cy="535652"/>
           <a:chOff x="862693" y="1246413"/>
           <a:chExt cx="516012" cy="544286"/>
         </a:xfrm>
@@ -2666,8 +2666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3032516" y="1360150"/>
-          <a:ext cx="568563" cy="535652"/>
+          <a:off x="2848585" y="1353581"/>
+          <a:ext cx="516012" cy="535652"/>
           <a:chOff x="862693" y="1246413"/>
           <a:chExt cx="516012" cy="544286"/>
         </a:xfrm>
@@ -2869,8 +2869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4751333" y="1370354"/>
-          <a:ext cx="568563" cy="535652"/>
+          <a:off x="4449160" y="1359023"/>
+          <a:ext cx="516012" cy="535652"/>
           <a:chOff x="862693" y="1246413"/>
           <a:chExt cx="516012" cy="544286"/>
         </a:xfrm>
@@ -3072,8 +3072,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6458584" y="1360150"/>
-          <a:ext cx="568564" cy="535652"/>
+          <a:off x="6033408" y="1353581"/>
+          <a:ext cx="516012" cy="535652"/>
           <a:chOff x="862693" y="1246413"/>
           <a:chExt cx="516012" cy="544286"/>
         </a:xfrm>
@@ -3275,8 +3275,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8166515" y="1360151"/>
-          <a:ext cx="568564" cy="535652"/>
+          <a:off x="7623098" y="1353582"/>
+          <a:ext cx="516012" cy="535652"/>
           <a:chOff x="862693" y="1246413"/>
           <a:chExt cx="516012" cy="544286"/>
         </a:xfrm>
@@ -3457,20 +3457,25 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>790128</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>130387</xdr:rowOff>
+      <xdr:colOff>1341783</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2661006" cy="2635012"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3969783</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2412</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6089C5FC-3C9B-405E-A0E3-60A1AD7FD2F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA06F9A2-A001-4009-958F-30618BB291EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3484,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3492,8 +3497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971103" y="1597237"/>
-          <a:ext cx="2661006" cy="2635012"/>
+          <a:off x="1522758" y="2161760"/>
+          <a:ext cx="2628000" cy="2660302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3501,7 +3506,60 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2203174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3166931</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>115812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7BCD3A-6BB3-4912-A42A-4F79283696F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2385391" y="198783"/>
+          <a:ext cx="963757" cy="331159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3804,64 +3862,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC629133-7D5F-4B5A-88BB-D64270877828}">
   <dimension ref="B1:X15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="3" customWidth="1"/>
-    <col min="2" max="6" width="5.73046875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="3" customWidth="1"/>
-    <col min="8" max="10" width="5.73046875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="6.73046875" style="3" customWidth="1"/>
-    <col min="12" max="14" width="5.73046875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="6.73046875" style="3" customWidth="1"/>
-    <col min="16" max="18" width="5.73046875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="6.73046875" style="3" customWidth="1"/>
-    <col min="20" max="22" width="5.73046875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="6.73046875" style="3" customWidth="1"/>
-    <col min="24" max="25" width="5.3984375" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="11.3984375" style="3"/>
+    <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
+    <col min="2" max="6" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
+    <col min="8" max="10" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="3" customWidth="1"/>
+    <col min="12" max="14" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="3" customWidth="1"/>
+    <col min="16" max="18" width="5.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="3" customWidth="1"/>
+    <col min="20" max="22" width="5.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" style="3" customWidth="1"/>
+    <col min="24" max="25" width="5.42578125" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="2:24" s="5" customFormat="1" ht="7.15" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" s="5" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
+    <row r="3" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
     </row>
-    <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3884,42 +3942,42 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="2:24" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="53" t="s">
+    <row r="5" spans="2:24" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="10"/>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="L5" s="53" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="L5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="P5" s="53" t="s">
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="P5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="T5" s="53" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="T5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>6</v>
@@ -3966,14 +4024,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -4009,13 +4067,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>4</v>
@@ -4062,33 +4120,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="H10" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="H10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
     </row>
-    <row r="11" spans="2:24" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:24" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
         <v>132</v>
       </c>
@@ -4104,28 +4162,28 @@
       <c r="F11" s="26">
         <v>124</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="L11" s="53" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="L11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="P11" s="53" t="s">
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="P11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="T11" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="T11" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
     </row>
-    <row r="12" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>130</v>
       </c>
@@ -4179,7 +4237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>40</v>
       </c>
@@ -4233,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:24" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28">
         <v>90</v>
       </c>
@@ -4287,7 +4345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>130</v>
       </c>
@@ -4327,62 +4385,263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8BA43-9483-4F65-8C45-7BF535947227}">
-  <dimension ref="B2:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1564D4E-F726-4AC0-BD28-134489A8A188}">
+  <dimension ref="B4:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="28" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="63.86328125" style="49" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="49"/>
+    <col min="1" max="1" width="2.7109375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="51" customWidth="1"/>
+    <col min="3" max="256" width="11.42578125" style="51"/>
+    <col min="257" max="257" width="2.7109375" style="51" customWidth="1"/>
+    <col min="258" max="258" width="63.42578125" style="51" customWidth="1"/>
+    <col min="259" max="512" width="11.42578125" style="51"/>
+    <col min="513" max="513" width="2.7109375" style="51" customWidth="1"/>
+    <col min="514" max="514" width="63.42578125" style="51" customWidth="1"/>
+    <col min="515" max="768" width="11.42578125" style="51"/>
+    <col min="769" max="769" width="2.7109375" style="51" customWidth="1"/>
+    <col min="770" max="770" width="63.42578125" style="51" customWidth="1"/>
+    <col min="771" max="1024" width="11.42578125" style="51"/>
+    <col min="1025" max="1025" width="2.7109375" style="51" customWidth="1"/>
+    <col min="1026" max="1026" width="63.42578125" style="51" customWidth="1"/>
+    <col min="1027" max="1280" width="11.42578125" style="51"/>
+    <col min="1281" max="1281" width="2.7109375" style="51" customWidth="1"/>
+    <col min="1282" max="1282" width="63.42578125" style="51" customWidth="1"/>
+    <col min="1283" max="1536" width="11.42578125" style="51"/>
+    <col min="1537" max="1537" width="2.7109375" style="51" customWidth="1"/>
+    <col min="1538" max="1538" width="63.42578125" style="51" customWidth="1"/>
+    <col min="1539" max="1792" width="11.42578125" style="51"/>
+    <col min="1793" max="1793" width="2.7109375" style="51" customWidth="1"/>
+    <col min="1794" max="1794" width="63.42578125" style="51" customWidth="1"/>
+    <col min="1795" max="2048" width="11.42578125" style="51"/>
+    <col min="2049" max="2049" width="2.7109375" style="51" customWidth="1"/>
+    <col min="2050" max="2050" width="63.42578125" style="51" customWidth="1"/>
+    <col min="2051" max="2304" width="11.42578125" style="51"/>
+    <col min="2305" max="2305" width="2.7109375" style="51" customWidth="1"/>
+    <col min="2306" max="2306" width="63.42578125" style="51" customWidth="1"/>
+    <col min="2307" max="2560" width="11.42578125" style="51"/>
+    <col min="2561" max="2561" width="2.7109375" style="51" customWidth="1"/>
+    <col min="2562" max="2562" width="63.42578125" style="51" customWidth="1"/>
+    <col min="2563" max="2816" width="11.42578125" style="51"/>
+    <col min="2817" max="2817" width="2.7109375" style="51" customWidth="1"/>
+    <col min="2818" max="2818" width="63.42578125" style="51" customWidth="1"/>
+    <col min="2819" max="3072" width="11.42578125" style="51"/>
+    <col min="3073" max="3073" width="2.7109375" style="51" customWidth="1"/>
+    <col min="3074" max="3074" width="63.42578125" style="51" customWidth="1"/>
+    <col min="3075" max="3328" width="11.42578125" style="51"/>
+    <col min="3329" max="3329" width="2.7109375" style="51" customWidth="1"/>
+    <col min="3330" max="3330" width="63.42578125" style="51" customWidth="1"/>
+    <col min="3331" max="3584" width="11.42578125" style="51"/>
+    <col min="3585" max="3585" width="2.7109375" style="51" customWidth="1"/>
+    <col min="3586" max="3586" width="63.42578125" style="51" customWidth="1"/>
+    <col min="3587" max="3840" width="11.42578125" style="51"/>
+    <col min="3841" max="3841" width="2.7109375" style="51" customWidth="1"/>
+    <col min="3842" max="3842" width="63.42578125" style="51" customWidth="1"/>
+    <col min="3843" max="4096" width="11.42578125" style="51"/>
+    <col min="4097" max="4097" width="2.7109375" style="51" customWidth="1"/>
+    <col min="4098" max="4098" width="63.42578125" style="51" customWidth="1"/>
+    <col min="4099" max="4352" width="11.42578125" style="51"/>
+    <col min="4353" max="4353" width="2.7109375" style="51" customWidth="1"/>
+    <col min="4354" max="4354" width="63.42578125" style="51" customWidth="1"/>
+    <col min="4355" max="4608" width="11.42578125" style="51"/>
+    <col min="4609" max="4609" width="2.7109375" style="51" customWidth="1"/>
+    <col min="4610" max="4610" width="63.42578125" style="51" customWidth="1"/>
+    <col min="4611" max="4864" width="11.42578125" style="51"/>
+    <col min="4865" max="4865" width="2.7109375" style="51" customWidth="1"/>
+    <col min="4866" max="4866" width="63.42578125" style="51" customWidth="1"/>
+    <col min="4867" max="5120" width="11.42578125" style="51"/>
+    <col min="5121" max="5121" width="2.7109375" style="51" customWidth="1"/>
+    <col min="5122" max="5122" width="63.42578125" style="51" customWidth="1"/>
+    <col min="5123" max="5376" width="11.42578125" style="51"/>
+    <col min="5377" max="5377" width="2.7109375" style="51" customWidth="1"/>
+    <col min="5378" max="5378" width="63.42578125" style="51" customWidth="1"/>
+    <col min="5379" max="5632" width="11.42578125" style="51"/>
+    <col min="5633" max="5633" width="2.7109375" style="51" customWidth="1"/>
+    <col min="5634" max="5634" width="63.42578125" style="51" customWidth="1"/>
+    <col min="5635" max="5888" width="11.42578125" style="51"/>
+    <col min="5889" max="5889" width="2.7109375" style="51" customWidth="1"/>
+    <col min="5890" max="5890" width="63.42578125" style="51" customWidth="1"/>
+    <col min="5891" max="6144" width="11.42578125" style="51"/>
+    <col min="6145" max="6145" width="2.7109375" style="51" customWidth="1"/>
+    <col min="6146" max="6146" width="63.42578125" style="51" customWidth="1"/>
+    <col min="6147" max="6400" width="11.42578125" style="51"/>
+    <col min="6401" max="6401" width="2.7109375" style="51" customWidth="1"/>
+    <col min="6402" max="6402" width="63.42578125" style="51" customWidth="1"/>
+    <col min="6403" max="6656" width="11.42578125" style="51"/>
+    <col min="6657" max="6657" width="2.7109375" style="51" customWidth="1"/>
+    <col min="6658" max="6658" width="63.42578125" style="51" customWidth="1"/>
+    <col min="6659" max="6912" width="11.42578125" style="51"/>
+    <col min="6913" max="6913" width="2.7109375" style="51" customWidth="1"/>
+    <col min="6914" max="6914" width="63.42578125" style="51" customWidth="1"/>
+    <col min="6915" max="7168" width="11.42578125" style="51"/>
+    <col min="7169" max="7169" width="2.7109375" style="51" customWidth="1"/>
+    <col min="7170" max="7170" width="63.42578125" style="51" customWidth="1"/>
+    <col min="7171" max="7424" width="11.42578125" style="51"/>
+    <col min="7425" max="7425" width="2.7109375" style="51" customWidth="1"/>
+    <col min="7426" max="7426" width="63.42578125" style="51" customWidth="1"/>
+    <col min="7427" max="7680" width="11.42578125" style="51"/>
+    <col min="7681" max="7681" width="2.7109375" style="51" customWidth="1"/>
+    <col min="7682" max="7682" width="63.42578125" style="51" customWidth="1"/>
+    <col min="7683" max="7936" width="11.42578125" style="51"/>
+    <col min="7937" max="7937" width="2.7109375" style="51" customWidth="1"/>
+    <col min="7938" max="7938" width="63.42578125" style="51" customWidth="1"/>
+    <col min="7939" max="8192" width="11.42578125" style="51"/>
+    <col min="8193" max="8193" width="2.7109375" style="51" customWidth="1"/>
+    <col min="8194" max="8194" width="63.42578125" style="51" customWidth="1"/>
+    <col min="8195" max="8448" width="11.42578125" style="51"/>
+    <col min="8449" max="8449" width="2.7109375" style="51" customWidth="1"/>
+    <col min="8450" max="8450" width="63.42578125" style="51" customWidth="1"/>
+    <col min="8451" max="8704" width="11.42578125" style="51"/>
+    <col min="8705" max="8705" width="2.7109375" style="51" customWidth="1"/>
+    <col min="8706" max="8706" width="63.42578125" style="51" customWidth="1"/>
+    <col min="8707" max="8960" width="11.42578125" style="51"/>
+    <col min="8961" max="8961" width="2.7109375" style="51" customWidth="1"/>
+    <col min="8962" max="8962" width="63.42578125" style="51" customWidth="1"/>
+    <col min="8963" max="9216" width="11.42578125" style="51"/>
+    <col min="9217" max="9217" width="2.7109375" style="51" customWidth="1"/>
+    <col min="9218" max="9218" width="63.42578125" style="51" customWidth="1"/>
+    <col min="9219" max="9472" width="11.42578125" style="51"/>
+    <col min="9473" max="9473" width="2.7109375" style="51" customWidth="1"/>
+    <col min="9474" max="9474" width="63.42578125" style="51" customWidth="1"/>
+    <col min="9475" max="9728" width="11.42578125" style="51"/>
+    <col min="9729" max="9729" width="2.7109375" style="51" customWidth="1"/>
+    <col min="9730" max="9730" width="63.42578125" style="51" customWidth="1"/>
+    <col min="9731" max="9984" width="11.42578125" style="51"/>
+    <col min="9985" max="9985" width="2.7109375" style="51" customWidth="1"/>
+    <col min="9986" max="9986" width="63.42578125" style="51" customWidth="1"/>
+    <col min="9987" max="10240" width="11.42578125" style="51"/>
+    <col min="10241" max="10241" width="2.7109375" style="51" customWidth="1"/>
+    <col min="10242" max="10242" width="63.42578125" style="51" customWidth="1"/>
+    <col min="10243" max="10496" width="11.42578125" style="51"/>
+    <col min="10497" max="10497" width="2.7109375" style="51" customWidth="1"/>
+    <col min="10498" max="10498" width="63.42578125" style="51" customWidth="1"/>
+    <col min="10499" max="10752" width="11.42578125" style="51"/>
+    <col min="10753" max="10753" width="2.7109375" style="51" customWidth="1"/>
+    <col min="10754" max="10754" width="63.42578125" style="51" customWidth="1"/>
+    <col min="10755" max="11008" width="11.42578125" style="51"/>
+    <col min="11009" max="11009" width="2.7109375" style="51" customWidth="1"/>
+    <col min="11010" max="11010" width="63.42578125" style="51" customWidth="1"/>
+    <col min="11011" max="11264" width="11.42578125" style="51"/>
+    <col min="11265" max="11265" width="2.7109375" style="51" customWidth="1"/>
+    <col min="11266" max="11266" width="63.42578125" style="51" customWidth="1"/>
+    <col min="11267" max="11520" width="11.42578125" style="51"/>
+    <col min="11521" max="11521" width="2.7109375" style="51" customWidth="1"/>
+    <col min="11522" max="11522" width="63.42578125" style="51" customWidth="1"/>
+    <col min="11523" max="11776" width="11.42578125" style="51"/>
+    <col min="11777" max="11777" width="2.7109375" style="51" customWidth="1"/>
+    <col min="11778" max="11778" width="63.42578125" style="51" customWidth="1"/>
+    <col min="11779" max="12032" width="11.42578125" style="51"/>
+    <col min="12033" max="12033" width="2.7109375" style="51" customWidth="1"/>
+    <col min="12034" max="12034" width="63.42578125" style="51" customWidth="1"/>
+    <col min="12035" max="12288" width="11.42578125" style="51"/>
+    <col min="12289" max="12289" width="2.7109375" style="51" customWidth="1"/>
+    <col min="12290" max="12290" width="63.42578125" style="51" customWidth="1"/>
+    <col min="12291" max="12544" width="11.42578125" style="51"/>
+    <col min="12545" max="12545" width="2.7109375" style="51" customWidth="1"/>
+    <col min="12546" max="12546" width="63.42578125" style="51" customWidth="1"/>
+    <col min="12547" max="12800" width="11.42578125" style="51"/>
+    <col min="12801" max="12801" width="2.7109375" style="51" customWidth="1"/>
+    <col min="12802" max="12802" width="63.42578125" style="51" customWidth="1"/>
+    <col min="12803" max="13056" width="11.42578125" style="51"/>
+    <col min="13057" max="13057" width="2.7109375" style="51" customWidth="1"/>
+    <col min="13058" max="13058" width="63.42578125" style="51" customWidth="1"/>
+    <col min="13059" max="13312" width="11.42578125" style="51"/>
+    <col min="13313" max="13313" width="2.7109375" style="51" customWidth="1"/>
+    <col min="13314" max="13314" width="63.42578125" style="51" customWidth="1"/>
+    <col min="13315" max="13568" width="11.42578125" style="51"/>
+    <col min="13569" max="13569" width="2.7109375" style="51" customWidth="1"/>
+    <col min="13570" max="13570" width="63.42578125" style="51" customWidth="1"/>
+    <col min="13571" max="13824" width="11.42578125" style="51"/>
+    <col min="13825" max="13825" width="2.7109375" style="51" customWidth="1"/>
+    <col min="13826" max="13826" width="63.42578125" style="51" customWidth="1"/>
+    <col min="13827" max="14080" width="11.42578125" style="51"/>
+    <col min="14081" max="14081" width="2.7109375" style="51" customWidth="1"/>
+    <col min="14082" max="14082" width="63.42578125" style="51" customWidth="1"/>
+    <col min="14083" max="14336" width="11.42578125" style="51"/>
+    <col min="14337" max="14337" width="2.7109375" style="51" customWidth="1"/>
+    <col min="14338" max="14338" width="63.42578125" style="51" customWidth="1"/>
+    <col min="14339" max="14592" width="11.42578125" style="51"/>
+    <col min="14593" max="14593" width="2.7109375" style="51" customWidth="1"/>
+    <col min="14594" max="14594" width="63.42578125" style="51" customWidth="1"/>
+    <col min="14595" max="14848" width="11.42578125" style="51"/>
+    <col min="14849" max="14849" width="2.7109375" style="51" customWidth="1"/>
+    <col min="14850" max="14850" width="63.42578125" style="51" customWidth="1"/>
+    <col min="14851" max="15104" width="11.42578125" style="51"/>
+    <col min="15105" max="15105" width="2.7109375" style="51" customWidth="1"/>
+    <col min="15106" max="15106" width="63.42578125" style="51" customWidth="1"/>
+    <col min="15107" max="15360" width="11.42578125" style="51"/>
+    <col min="15361" max="15361" width="2.7109375" style="51" customWidth="1"/>
+    <col min="15362" max="15362" width="63.42578125" style="51" customWidth="1"/>
+    <col min="15363" max="15616" width="11.42578125" style="51"/>
+    <col min="15617" max="15617" width="2.7109375" style="51" customWidth="1"/>
+    <col min="15618" max="15618" width="63.42578125" style="51" customWidth="1"/>
+    <col min="15619" max="15872" width="11.42578125" style="51"/>
+    <col min="15873" max="15873" width="2.7109375" style="51" customWidth="1"/>
+    <col min="15874" max="15874" width="63.42578125" style="51" customWidth="1"/>
+    <col min="15875" max="16128" width="11.42578125" style="51"/>
+    <col min="16129" max="16129" width="2.7109375" style="51" customWidth="1"/>
+    <col min="16130" max="16130" width="63.42578125" style="51" customWidth="1"/>
+    <col min="16131" max="16384" width="11.42578125" style="51"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="48" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="50" t="s">
-        <v>13</v>
-      </c>
+    <row r="25" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="54"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="50" t="s">
-        <v>19</v>
-      </c>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="54"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="48"/>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="54"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="52" t="s">
-        <v>22</v>
-      </c>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="54"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bTceIAnuQBpB8+f6rzttpkszPIc8jELrlfCRKErPltUjte8lOzcd5XNQgb2o9GYWOc1rapIGzlpccuIQ5ZvneQ==" saltValue="rlLEvjSGVDIHlX8xFrO/6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="95xMJXF3z9ShrDZMg/Q6HmiXrfOWXo7F/4S3UbXkvgRF0m9HaVqc5SfRIT8vyOEwJ0aK3unV3Yw1RvgNkMdy9g==" saltValue="w9K/YgesAiRHUgG3jJrmfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B25:B28"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD472F40-8ED4-4F10-93BA-98C0ED72B4BF}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{37C4A528-08EC-457B-839A-0CA88201FF3A}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{3CFD6048-C3AA-4EE0-8079-EDA89A0D7204}"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{B62BDBAC-D881-4FE7-AA1E-343F8F233D58}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{8E75B030-93B4-4F83-9314-5CEE99C0117B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>